--- a/State_by_State_Violations2023.xlsx
+++ b/State_by_State_Violations2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keros\.venv\Capstone-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4DD084-A24E-4693-AD2B-43D773D48B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CB7E94-1A0B-476F-BB4B-FCBE5FCA8FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{05EB7DB3-8D85-4B1D-991F-38359EDF91CB}"/>
   </bookViews>
